--- a/data/ENROLLMENT RAW REF.xlsx
+++ b/data/ENROLLMENT RAW REF.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHTadenaFr\Documents\tbmc-data-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B09A96-997D-47F8-9BE3-C46332E55011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="514" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="18" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="23" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="22" r:id="rId3"/>
-    <sheet name="list" sheetId="2" r:id="rId4"/>
+    <sheet name="fact table" sheetId="24" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="22" r:id="rId4"/>
+    <sheet name="list" sheetId="2" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RAW!$A$2:$O$252</definedName>
@@ -105,9 +105,9 @@
     <definedName name="z">#REF!</definedName>
     <definedName name="zz">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="371">
   <si>
     <t>STATUS</t>
   </si>
@@ -1247,12 +1247,30 @@
   </si>
   <si>
     <t>Get this from stories (another function)</t>
+  </si>
+  <si>
+    <t>task name</t>
+  </si>
+  <si>
+    <t>task_gid</t>
+  </si>
+  <si>
+    <t>date_stamp</t>
+  </si>
+  <si>
+    <t>date_age</t>
+  </si>
+  <si>
+    <t>date_close</t>
+  </si>
+  <si>
+    <t>total_days (date_close - date_stamp)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -1401,7 +1419,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -1856,47 +1874,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2766,7 +2743,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ERSA_Z3Jul1009"/>
@@ -2781,7 +2758,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PHTadenaFr" refreshedDate="45509.612140393518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="247" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="PHTadenaFr" refreshedDate="45509.612140393518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="247">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:A248" sheet="Sheet1"/>
   </cacheSource>
@@ -3554,7 +3531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -3904,36 +3881,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:O252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
-    <col min="10" max="10" width="48.44140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>363</v>
       </c>
@@ -3980,7 +3957,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>232</v>
       </c>
@@ -4027,7 +4004,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
@@ -4045,7 +4022,7 @@
       </c>
       <c r="G3" s="2">
         <f ca="1">IF(E3="DONE",NOW()-D3, NOW()-D3)</f>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H3" s="2" t="str">
         <f ca="1">IF(E3="DONE", "", NOW()-F3)</f>
@@ -4070,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -4088,7 +4065,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G68" ca="1" si="0">IF(E4="DONE",NOW()-D4, NOW()-D4)</f>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" ref="H4:H68" ca="1" si="1">IF(E4="DONE", "", NOW()-F4)</f>
@@ -4113,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
@@ -4131,7 +4108,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4156,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
@@ -4174,7 +4151,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4199,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>95</v>
       </c>
@@ -4217,7 +4194,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4242,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>95</v>
       </c>
@@ -4260,7 +4237,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4285,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>95</v>
       </c>
@@ -4303,7 +4280,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4328,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
@@ -4346,7 +4323,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4371,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
@@ -4389,7 +4366,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4414,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>95</v>
       </c>
@@ -4432,7 +4409,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4457,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>95</v>
       </c>
@@ -4475,7 +4452,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4500,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>95</v>
       </c>
@@ -4518,7 +4495,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4543,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>95</v>
       </c>
@@ -4561,7 +4538,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4586,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>95</v>
       </c>
@@ -4604,7 +4581,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4629,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
@@ -4647,7 +4624,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4672,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>95</v>
       </c>
@@ -4690,7 +4667,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4715,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
@@ -4733,7 +4710,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4758,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
@@ -4776,11 +4753,11 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>220</v>
@@ -4801,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
@@ -4819,11 +4796,11 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>220</v>
@@ -4844,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
@@ -4862,11 +4839,11 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>220</v>
@@ -4887,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>92</v>
       </c>
@@ -4905,11 +4882,11 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>220</v>
@@ -4930,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
@@ -4948,11 +4925,11 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>220</v>
@@ -4973,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
@@ -4991,11 +4968,11 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>220</v>
@@ -5016,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>92</v>
       </c>
@@ -5034,11 +5011,11 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>220</v>
@@ -5059,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>92</v>
       </c>
@@ -5077,11 +5054,11 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>220</v>
@@ -5102,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
@@ -5120,11 +5097,11 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>220</v>
@@ -5145,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>92</v>
       </c>
@@ -5163,11 +5140,11 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>220</v>
@@ -5188,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
@@ -5206,11 +5183,11 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>220</v>
@@ -5231,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>94</v>
       </c>
@@ -5249,7 +5226,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5274,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>99</v>
       </c>
@@ -5292,7 +5269,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>163.76422326389002</v>
+        <v>168.73639791666938</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5317,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>108</v>
       </c>
@@ -5335,11 +5312,11 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>209</v>
@@ -5360,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>108</v>
       </c>
@@ -5378,11 +5355,11 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>209</v>
@@ -5403,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>108</v>
       </c>
@@ -5421,11 +5398,11 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>209</v>
@@ -5446,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>108</v>
       </c>
@@ -5464,11 +5441,11 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>209</v>
@@ -5489,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>108</v>
       </c>
@@ -5507,11 +5484,11 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>209</v>
@@ -5532,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
@@ -5550,11 +5527,11 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>209</v>
@@ -5575,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>93</v>
       </c>
@@ -5593,11 +5570,11 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>209</v>
@@ -5618,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>93</v>
       </c>
@@ -5636,11 +5613,11 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>209</v>
@@ -5661,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>93</v>
       </c>
@@ -5679,11 +5656,11 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>209</v>
@@ -5704,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>93</v>
       </c>
@@ -5722,11 +5699,11 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>209</v>
@@ -5747,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>93</v>
       </c>
@@ -5765,11 +5742,11 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>209</v>
@@ -5790,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
@@ -5808,11 +5785,11 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>209</v>
@@ -5833,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>93</v>
       </c>
@@ -5851,11 +5828,11 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>209</v>
@@ -5879,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
@@ -5897,11 +5874,11 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>209</v>
@@ -5925,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
@@ -5943,11 +5920,11 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>209</v>
@@ -5971,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>184</v>
       </c>
@@ -5989,11 +5966,11 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" ref="G48" ca="1" si="2">IF(E48="DONE",NOW()-D48, NOW()-D48)</f>
-        <v>34.76422187499702</v>
+        <v>39.736397916669375</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" ref="H48" ca="1" si="3">IF(E48="DONE", "", NOW()-F48)</f>
-        <v>2.7642218749970198</v>
+        <v>7.7363979166693753</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>209</v>
@@ -6014,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>184</v>
       </c>
@@ -6032,11 +6009,11 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34.764223263890017</v>
+        <v>39.736397916669375</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7642232638900168</v>
+        <v>7.7363979166693753</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>209</v>
@@ -6057,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>168</v>
       </c>
@@ -6075,11 +6052,11 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>209</v>
@@ -6100,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>168</v>
       </c>
@@ -6118,11 +6095,11 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>209</v>
@@ -6143,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>168</v>
       </c>
@@ -6161,11 +6138,11 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>209</v>
@@ -6186,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>168</v>
       </c>
@@ -6204,11 +6181,11 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>209</v>
@@ -6229,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>168</v>
       </c>
@@ -6247,11 +6224,11 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>209</v>
@@ -6272,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>168</v>
       </c>
@@ -6290,11 +6267,11 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>209</v>
@@ -6315,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>168</v>
       </c>
@@ -6333,11 +6310,11 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>209</v>
@@ -6358,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>168</v>
       </c>
@@ -6376,11 +6353,11 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>209</v>
@@ -6401,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>168</v>
       </c>
@@ -6419,11 +6396,11 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>209</v>
@@ -6444,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>95</v>
       </c>
@@ -6462,11 +6439,11 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>209</v>
@@ -6487,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>95</v>
       </c>
@@ -6505,11 +6482,11 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>209</v>
@@ -6530,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>95</v>
       </c>
@@ -6548,11 +6525,11 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>209</v>
@@ -6573,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>95</v>
       </c>
@@ -6591,11 +6568,11 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>209</v>
@@ -6616,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>95</v>
       </c>
@@ -6634,11 +6611,11 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>209</v>
@@ -6659,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>95</v>
       </c>
@@ -6677,11 +6654,11 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>209</v>
@@ -6702,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
@@ -6720,11 +6697,11 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>209</v>
@@ -6745,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>95</v>
       </c>
@@ -6763,7 +6740,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H66" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6788,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>95</v>
       </c>
@@ -6806,7 +6783,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H67" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6831,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>95</v>
       </c>
@@ -6849,7 +6826,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H68" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6874,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>95</v>
       </c>
@@ -6892,7 +6869,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" ref="G69:G132" ca="1" si="4">IF(E69="DONE",NOW()-D69, NOW()-D69)</f>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H69" s="2" t="str">
         <f t="shared" ref="H69:H132" ca="1" si="5">IF(E69="DONE", "", NOW()-F69)</f>
@@ -6917,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>95</v>
       </c>
@@ -6935,7 +6912,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H70" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6960,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>95</v>
       </c>
@@ -6978,7 +6955,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H71" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7003,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>95</v>
       </c>
@@ -7021,7 +6998,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H72" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7046,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
@@ -7064,7 +7041,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H73" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7089,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>95</v>
       </c>
@@ -7107,7 +7084,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>223.76422326389002</v>
+        <v>228.73639791666938</v>
       </c>
       <c r="H74" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7132,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>95</v>
       </c>
@@ -7150,11 +7127,11 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7642232638900168</v>
+        <v>7.7363979166693753</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>198</v>
@@ -7175,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>95</v>
       </c>
@@ -7193,11 +7170,11 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>132.76422326389002</v>
+        <v>137.73639791666938</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>209</v>
@@ -7218,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
@@ -7236,7 +7213,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H77" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7261,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>95</v>
       </c>
@@ -7279,7 +7256,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H78" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7304,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>95</v>
       </c>
@@ -7322,7 +7299,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H79" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7347,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>92</v>
       </c>
@@ -7365,7 +7342,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H80" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7390,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>92</v>
       </c>
@@ -7408,7 +7385,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H81" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7433,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>92</v>
       </c>
@@ -7451,7 +7428,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H82" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7476,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>92</v>
       </c>
@@ -7494,7 +7471,7 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H83" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7519,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>92</v>
       </c>
@@ -7537,7 +7514,7 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H84" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7562,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>92</v>
       </c>
@@ -7580,7 +7557,7 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H85" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7605,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>92</v>
       </c>
@@ -7623,7 +7600,7 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H86" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7648,7 +7625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>92</v>
       </c>
@@ -7666,7 +7643,7 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H87" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7691,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>92</v>
       </c>
@@ -7709,7 +7686,7 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H88" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7734,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>92</v>
       </c>
@@ -7752,7 +7729,7 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H89" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7777,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>92</v>
       </c>
@@ -7795,7 +7772,7 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H90" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7820,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>92</v>
       </c>
@@ -7838,7 +7815,7 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H91" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7863,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>92</v>
       </c>
@@ -7881,7 +7858,7 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H92" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7906,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>92</v>
       </c>
@@ -7924,7 +7901,7 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H93" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7949,7 +7926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>92</v>
       </c>
@@ -7967,7 +7944,7 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H94" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7992,7 +7969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>92</v>
       </c>
@@ -8010,7 +7987,7 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H95" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8035,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
         <v>92</v>
       </c>
@@ -8053,7 +8030,7 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H96" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8078,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>92</v>
       </c>
@@ -8096,7 +8073,7 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H97" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8121,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>92</v>
       </c>
@@ -8139,7 +8116,7 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H98" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8164,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
@@ -8182,7 +8159,7 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H99" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8207,7 +8184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
@@ -8225,7 +8202,7 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H100" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8250,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -8268,7 +8245,7 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H101" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8293,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>92</v>
       </c>
@@ -8311,7 +8288,7 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H102" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8336,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>92</v>
       </c>
@@ -8354,7 +8331,7 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H103" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8379,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>92</v>
       </c>
@@ -8397,7 +8374,7 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H104" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8422,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>92</v>
       </c>
@@ -8440,7 +8417,7 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H105" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8465,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
         <v>92</v>
       </c>
@@ -8483,7 +8460,7 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H106" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8508,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
         <v>92</v>
       </c>
@@ -8526,7 +8503,7 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H107" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8551,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>92</v>
       </c>
@@ -8569,7 +8546,7 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H108" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8594,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
         <v>92</v>
       </c>
@@ -8612,7 +8589,7 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H109" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8637,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
         <v>92</v>
       </c>
@@ -8655,7 +8632,7 @@
       </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H110" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8680,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
         <v>92</v>
       </c>
@@ -8698,7 +8675,7 @@
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H111" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8723,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
         <v>92</v>
       </c>
@@ -8741,7 +8718,7 @@
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H112" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8766,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="4" t="s">
         <v>92</v>
       </c>
@@ -8784,7 +8761,7 @@
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H113" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8809,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
         <v>92</v>
       </c>
@@ -8827,7 +8804,7 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H114" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8852,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
         <v>92</v>
       </c>
@@ -8870,7 +8847,7 @@
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H115" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8895,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
         <v>92</v>
       </c>
@@ -8913,7 +8890,7 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H116" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8938,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
         <v>92</v>
       </c>
@@ -8956,7 +8933,7 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H117" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8981,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
         <v>92</v>
       </c>
@@ -8999,7 +8976,7 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H118" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9024,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
         <v>92</v>
       </c>
@@ -9042,11 +9019,11 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H119" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>220</v>
@@ -9067,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
         <v>92</v>
       </c>
@@ -9085,11 +9062,11 @@
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H120" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>220</v>
@@ -9110,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
         <v>92</v>
       </c>
@@ -9128,11 +9105,11 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H121" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>220</v>
@@ -9153,7 +9130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>92</v>
       </c>
@@ -9171,11 +9148,11 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H122" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>220</v>
@@ -9196,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>92</v>
       </c>
@@ -9214,11 +9191,11 @@
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>220</v>
@@ -9239,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>92</v>
       </c>
@@ -9257,11 +9234,11 @@
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>220</v>
@@ -9282,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
         <v>92</v>
       </c>
@@ -9300,11 +9277,11 @@
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>220</v>
@@ -9325,7 +9302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
         <v>92</v>
       </c>
@@ -9343,11 +9320,11 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>220</v>
@@ -9368,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
         <v>92</v>
       </c>
@@ -9386,11 +9363,11 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>209</v>
@@ -9411,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
         <v>92</v>
       </c>
@@ -9429,11 +9406,11 @@
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>209</v>
@@ -9454,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
         <v>92</v>
       </c>
@@ -9472,11 +9449,11 @@
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>209</v>
@@ -9497,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
         <v>92</v>
       </c>
@@ -9515,11 +9492,11 @@
       </c>
       <c r="G130" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>209</v>
@@ -9540,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
         <v>92</v>
       </c>
@@ -9558,11 +9535,11 @@
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>209</v>
@@ -9583,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
         <v>92</v>
       </c>
@@ -9601,11 +9578,11 @@
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>209</v>
@@ -9626,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
         <v>92</v>
       </c>
@@ -9644,11 +9621,11 @@
       </c>
       <c r="G133" s="2">
         <f t="shared" ref="G133:G207" ca="1" si="6">IF(E133="DONE",NOW()-D133, NOW()-D133)</f>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" ref="H133:H196" ca="1" si="7">IF(E133="DONE", "", NOW()-F133)</f>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>209</v>
@@ -9669,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
         <v>92</v>
       </c>
@@ -9687,11 +9664,11 @@
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>209</v>
@@ -9712,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
         <v>92</v>
       </c>
@@ -9730,11 +9707,11 @@
       </c>
       <c r="G135" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>209</v>
@@ -9755,7 +9732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
         <v>92</v>
       </c>
@@ -9773,11 +9750,11 @@
       </c>
       <c r="G136" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H136" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>209</v>
@@ -9798,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
         <v>92</v>
       </c>
@@ -9816,11 +9793,11 @@
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>209</v>
@@ -9841,7 +9818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
         <v>92</v>
       </c>
@@ -9859,11 +9836,11 @@
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>209</v>
@@ -9884,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
         <v>92</v>
       </c>
@@ -9902,11 +9879,11 @@
       </c>
       <c r="G139" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>209</v>
@@ -9927,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
         <v>92</v>
       </c>
@@ -9945,11 +9922,11 @@
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>209</v>
@@ -9970,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
         <v>92</v>
       </c>
@@ -9988,11 +9965,11 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>209</v>
@@ -10013,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
         <v>92</v>
       </c>
@@ -10031,11 +10008,11 @@
       </c>
       <c r="G142" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>209</v>
@@ -10056,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
         <v>92</v>
       </c>
@@ -10074,11 +10051,11 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>209</v>
@@ -10099,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
         <v>92</v>
       </c>
@@ -10117,11 +10094,11 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>220</v>
@@ -10142,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
         <v>92</v>
       </c>
@@ -10160,11 +10137,11 @@
       </c>
       <c r="G145" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>220</v>
@@ -10185,7 +10162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
         <v>92</v>
       </c>
@@ -10203,11 +10180,11 @@
       </c>
       <c r="G146" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>220</v>
@@ -10228,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
         <v>92</v>
       </c>
@@ -10246,11 +10223,11 @@
       </c>
       <c r="G147" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>220</v>
@@ -10271,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
         <v>92</v>
       </c>
@@ -10289,11 +10266,11 @@
       </c>
       <c r="G148" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>220</v>
@@ -10314,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
         <v>92</v>
       </c>
@@ -10332,11 +10309,11 @@
       </c>
       <c r="G149" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>220</v>
@@ -10357,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
         <v>92</v>
       </c>
@@ -10375,11 +10352,11 @@
       </c>
       <c r="G150" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>220</v>
@@ -10400,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
         <v>92</v>
       </c>
@@ -10418,11 +10395,11 @@
       </c>
       <c r="G151" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>220</v>
@@ -10443,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
         <v>92</v>
       </c>
@@ -10461,11 +10438,11 @@
       </c>
       <c r="G152" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7642232638900168</v>
+        <v>8.7363979166693753</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>220</v>
@@ -10486,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
         <v>94</v>
       </c>
@@ -10504,7 +10481,7 @@
       </c>
       <c r="G153" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H153" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10529,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
         <v>94</v>
       </c>
@@ -10547,7 +10524,7 @@
       </c>
       <c r="G154" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H154" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10572,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
         <v>94</v>
       </c>
@@ -10590,7 +10567,7 @@
       </c>
       <c r="G155" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H155" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10615,7 +10592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
         <v>94</v>
       </c>
@@ -10633,7 +10610,7 @@
       </c>
       <c r="G156" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H156" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10658,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
         <v>99</v>
       </c>
@@ -10676,7 +10653,7 @@
       </c>
       <c r="G157" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H157" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10701,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B158" s="4" t="s">
         <v>99</v>
       </c>
@@ -10719,7 +10696,7 @@
       </c>
       <c r="G158" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H158" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10744,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
         <v>99</v>
       </c>
@@ -10762,7 +10739,7 @@
       </c>
       <c r="G159" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H159" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10787,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
         <v>99</v>
       </c>
@@ -10805,7 +10782,7 @@
       </c>
       <c r="G160" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H160" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10830,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
         <v>99</v>
       </c>
@@ -10848,11 +10825,11 @@
       </c>
       <c r="G161" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="H161" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>198</v>
@@ -10876,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
         <v>108</v>
       </c>
@@ -10894,11 +10871,11 @@
       </c>
       <c r="G162" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H162" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7642232638900168</v>
+        <v>7.7363979166693753</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>198</v>
@@ -10919,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
         <v>108</v>
       </c>
@@ -10937,11 +10914,11 @@
       </c>
       <c r="G163" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H163" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>209</v>
@@ -10965,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
         <v>108</v>
       </c>
@@ -10983,11 +10960,11 @@
       </c>
       <c r="G164" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H164" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>209</v>
@@ -11011,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B165" s="4" t="s">
         <v>108</v>
       </c>
@@ -11029,11 +11006,11 @@
       </c>
       <c r="G165" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H165" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>209</v>
@@ -11057,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B166" s="4" t="s">
         <v>108</v>
       </c>
@@ -11075,11 +11052,11 @@
       </c>
       <c r="G166" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H166" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="I166" s="4" t="s">
         <v>209</v>
@@ -11103,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
         <v>108</v>
       </c>
@@ -11121,11 +11098,11 @@
       </c>
       <c r="G167" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H167" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="I167" s="4" t="s">
         <v>209</v>
@@ -11149,7 +11126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B168" s="4" t="s">
         <v>108</v>
       </c>
@@ -11167,11 +11144,11 @@
       </c>
       <c r="G168" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H168" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>102.76422326389002</v>
+        <v>107.73639791666938</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>209</v>
@@ -11195,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B169" s="4" t="s">
         <v>108</v>
       </c>
@@ -11213,11 +11190,11 @@
       </c>
       <c r="G169" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>71.764223263890017</v>
+        <v>76.736397916669375</v>
       </c>
       <c r="H169" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7642232638900168</v>
+        <v>7.7363979166693753</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>198</v>
@@ -11238,7 +11215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>817330413</v>
       </c>
@@ -11259,11 +11236,11 @@
       </c>
       <c r="G170" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H170" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I170" s="4" t="s">
         <v>322</v>
@@ -11287,7 +11264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>180350376</v>
       </c>
@@ -11308,11 +11285,11 @@
       </c>
       <c r="G171" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H171" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I171" s="4" t="s">
         <v>322</v>
@@ -11336,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>180350029</v>
       </c>
@@ -11357,11 +11334,11 @@
       </c>
       <c r="G172" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H172" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I172" s="4" t="s">
         <v>322</v>
@@ -11385,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>817330413</v>
       </c>
@@ -11406,11 +11383,11 @@
       </c>
       <c r="G173" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H173" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>322</v>
@@ -11434,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>180350376</v>
       </c>
@@ -11455,11 +11432,11 @@
       </c>
       <c r="G174" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H174" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>322</v>
@@ -11483,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>180350029</v>
       </c>
@@ -11504,11 +11481,11 @@
       </c>
       <c r="G175" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H175" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I175" s="4" t="s">
         <v>322</v>
@@ -11532,7 +11509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>816310629</v>
       </c>
@@ -11553,11 +11530,11 @@
       </c>
       <c r="G176" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H176" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>322</v>
@@ -11581,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>180350364</v>
       </c>
@@ -11602,11 +11579,11 @@
       </c>
       <c r="G177" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H177" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I177" s="4" t="s">
         <v>322</v>
@@ -11630,7 +11607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>180350022</v>
       </c>
@@ -11651,11 +11628,11 @@
       </c>
       <c r="G178" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H178" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I178" s="4" t="s">
         <v>322</v>
@@ -11679,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>816330271</v>
       </c>
@@ -11700,11 +11677,11 @@
       </c>
       <c r="G179" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H179" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I179" s="4" t="s">
         <v>322</v>
@@ -11728,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>1803500377</v>
       </c>
@@ -11749,11 +11726,11 @@
       </c>
       <c r="G180" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="H180" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>322</v>
@@ -11777,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B181" s="11" t="s">
         <v>93</v>
       </c>
@@ -11795,11 +11772,11 @@
       </c>
       <c r="G181" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H181" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I181" s="4" t="s">
         <v>209</v>
@@ -11820,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B182" s="11" t="s">
         <v>93</v>
       </c>
@@ -11838,11 +11815,11 @@
       </c>
       <c r="G182" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H182" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>209</v>
@@ -11863,7 +11840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B183" s="11" t="s">
         <v>93</v>
       </c>
@@ -11881,11 +11858,11 @@
       </c>
       <c r="G183" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H183" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>209</v>
@@ -11906,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B184" s="11" t="s">
         <v>93</v>
       </c>
@@ -11924,11 +11901,11 @@
       </c>
       <c r="G184" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H184" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>322</v>
@@ -11952,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B185" s="11" t="s">
         <v>93</v>
       </c>
@@ -11970,11 +11947,11 @@
       </c>
       <c r="G185" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H185" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>209</v>
@@ -11995,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B186" s="11" t="s">
         <v>93</v>
       </c>
@@ -12013,11 +11990,11 @@
       </c>
       <c r="G186" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H186" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>209</v>
@@ -12038,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B187" s="11" t="s">
         <v>93</v>
       </c>
@@ -12056,11 +12033,11 @@
       </c>
       <c r="G187" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H187" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>209</v>
@@ -12081,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B188" s="11" t="s">
         <v>93</v>
       </c>
@@ -12099,11 +12076,11 @@
       </c>
       <c r="G188" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H188" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>209</v>
@@ -12124,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B189" s="11" t="s">
         <v>93</v>
       </c>
@@ -12142,11 +12119,11 @@
       </c>
       <c r="G189" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H189" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>209</v>
@@ -12167,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B190" s="11" t="s">
         <v>93</v>
       </c>
@@ -12185,11 +12162,11 @@
       </c>
       <c r="G190" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H190" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I190" s="4" t="s">
         <v>209</v>
@@ -12210,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B191" s="11" t="s">
         <v>93</v>
       </c>
@@ -12228,11 +12205,11 @@
       </c>
       <c r="G191" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H191" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I191" s="4" t="s">
         <v>209</v>
@@ -12253,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B192" s="11" t="s">
         <v>93</v>
       </c>
@@ -12271,11 +12248,11 @@
       </c>
       <c r="G192" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H192" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I192" s="4" t="s">
         <v>209</v>
@@ -12296,7 +12273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B193" s="11" t="s">
         <v>93</v>
       </c>
@@ -12314,11 +12291,11 @@
       </c>
       <c r="G193" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H193" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I193" s="4" t="s">
         <v>209</v>
@@ -12339,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B194" s="11" t="s">
         <v>93</v>
       </c>
@@ -12357,11 +12334,11 @@
       </c>
       <c r="G194" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H194" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I194" s="4" t="s">
         <v>209</v>
@@ -12382,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195" s="11" t="s">
         <v>93</v>
       </c>
@@ -12400,11 +12377,11 @@
       </c>
       <c r="G195" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H195" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I195" s="4" t="s">
         <v>209</v>
@@ -12425,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B196" s="11" t="s">
         <v>93</v>
       </c>
@@ -12443,11 +12420,11 @@
       </c>
       <c r="G196" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H196" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I196" s="4" t="s">
         <v>209</v>
@@ -12468,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B197" s="11" t="s">
         <v>93</v>
       </c>
@@ -12486,11 +12463,11 @@
       </c>
       <c r="G197" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H197" s="2">
         <f t="shared" ref="H197:H252" ca="1" si="8">IF(E197="DONE", "", NOW()-F197)</f>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>209</v>
@@ -12511,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B198" s="11" t="s">
         <v>93</v>
       </c>
@@ -12529,11 +12506,11 @@
       </c>
       <c r="G198" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H198" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>209</v>
@@ -12554,7 +12531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B199" s="11" t="s">
         <v>93</v>
       </c>
@@ -12572,11 +12549,11 @@
       </c>
       <c r="G199" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H199" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>209</v>
@@ -12597,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200" s="11" t="s">
         <v>93</v>
       </c>
@@ -12615,11 +12592,11 @@
       </c>
       <c r="G200" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H200" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I200" s="4" t="s">
         <v>209</v>
@@ -12640,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B201" s="11" t="s">
         <v>93</v>
       </c>
@@ -12658,11 +12635,11 @@
       </c>
       <c r="G201" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H201" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I201" s="4" t="s">
         <v>209</v>
@@ -12683,7 +12660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B202" s="11" t="s">
         <v>93</v>
       </c>
@@ -12701,11 +12678,11 @@
       </c>
       <c r="G202" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H202" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I202" s="4" t="s">
         <v>209</v>
@@ -12726,7 +12703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B203" s="11" t="s">
         <v>93</v>
       </c>
@@ -12744,11 +12721,11 @@
       </c>
       <c r="G203" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H203" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="I203" s="4" t="s">
         <v>209</v>
@@ -12769,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
         <v>168</v>
       </c>
@@ -12787,11 +12764,11 @@
       </c>
       <c r="G204" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H204" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I204" s="4" t="s">
         <v>209</v>
@@ -12812,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205" s="4" t="s">
         <v>168</v>
       </c>
@@ -12830,11 +12807,11 @@
       </c>
       <c r="G205" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H205" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>209</v>
@@ -12855,7 +12832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B206" s="4" t="s">
         <v>168</v>
       </c>
@@ -12873,11 +12850,11 @@
       </c>
       <c r="G206" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H206" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>209</v>
@@ -12898,7 +12875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B207" s="4" t="s">
         <v>168</v>
       </c>
@@ -12916,11 +12893,11 @@
       </c>
       <c r="G207" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H207" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>209</v>
@@ -12941,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208" s="4" t="s">
         <v>168</v>
       </c>
@@ -12959,11 +12936,11 @@
       </c>
       <c r="G208" s="2">
         <f t="shared" ref="G208:G251" ca="1" si="9">IF(E208="DONE",NOW()-D208, NOW()-D208)</f>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H208" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>209</v>
@@ -12984,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B209" s="4" t="s">
         <v>168</v>
       </c>
@@ -13002,11 +12979,11 @@
       </c>
       <c r="G209" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H209" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I209" s="4" t="s">
         <v>209</v>
@@ -13027,7 +13004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="4" t="s">
         <v>168</v>
       </c>
@@ -13045,11 +13022,11 @@
       </c>
       <c r="G210" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H210" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I210" s="4" t="s">
         <v>209</v>
@@ -13070,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B211" s="4" t="s">
         <v>168</v>
       </c>
@@ -13088,11 +13065,11 @@
       </c>
       <c r="G211" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H211" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I211" s="4" t="s">
         <v>209</v>
@@ -13113,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B212" s="4" t="s">
         <v>168</v>
       </c>
@@ -13131,11 +13108,11 @@
       </c>
       <c r="G212" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H212" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>209</v>
@@ -13156,7 +13133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B213" s="4" t="s">
         <v>168</v>
       </c>
@@ -13174,11 +13151,11 @@
       </c>
       <c r="G213" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H213" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I213" s="4" t="s">
         <v>209</v>
@@ -13199,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B214" s="4" t="s">
         <v>168</v>
       </c>
@@ -13217,11 +13194,11 @@
       </c>
       <c r="G214" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H214" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I214" s="4" t="s">
         <v>209</v>
@@ -13242,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B215" s="4" t="s">
         <v>168</v>
       </c>
@@ -13260,11 +13237,11 @@
       </c>
       <c r="G215" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H215" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I215" s="4" t="s">
         <v>209</v>
@@ -13285,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216" s="4" t="s">
         <v>168</v>
       </c>
@@ -13303,11 +13280,11 @@
       </c>
       <c r="G216" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H216" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I216" s="4" t="s">
         <v>209</v>
@@ -13328,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B217" s="4" t="s">
         <v>168</v>
       </c>
@@ -13346,11 +13323,11 @@
       </c>
       <c r="G217" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H217" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I217" s="4" t="s">
         <v>209</v>
@@ -13371,7 +13348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B218" s="4" t="s">
         <v>168</v>
       </c>
@@ -13389,11 +13366,11 @@
       </c>
       <c r="G218" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H218" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I218" s="4" t="s">
         <v>209</v>
@@ -13414,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B219" s="4" t="s">
         <v>168</v>
       </c>
@@ -13432,11 +13409,11 @@
       </c>
       <c r="G219" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H219" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I219" s="4" t="s">
         <v>209</v>
@@ -13457,7 +13434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B220" s="4" t="s">
         <v>168</v>
       </c>
@@ -13475,11 +13452,11 @@
       </c>
       <c r="G220" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H220" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I220" s="4" t="s">
         <v>209</v>
@@ -13500,7 +13477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B221" s="4" t="s">
         <v>168</v>
       </c>
@@ -13518,11 +13495,11 @@
       </c>
       <c r="G221" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H221" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I221" s="4" t="s">
         <v>209</v>
@@ -13543,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B222" s="4" t="s">
         <v>168</v>
       </c>
@@ -13561,11 +13538,11 @@
       </c>
       <c r="G222" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H222" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>209</v>
@@ -13586,7 +13563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B223" s="4" t="s">
         <v>168</v>
       </c>
@@ -13604,11 +13581,11 @@
       </c>
       <c r="G223" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H223" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>209</v>
@@ -13629,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B224" s="4" t="s">
         <v>168</v>
       </c>
@@ -13647,11 +13624,11 @@
       </c>
       <c r="G224" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H224" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>209</v>
@@ -13672,7 +13649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B225" s="4" t="s">
         <v>168</v>
       </c>
@@ -13690,11 +13667,11 @@
       </c>
       <c r="G225" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H225" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>209</v>
@@ -13715,7 +13692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B226" s="4" t="s">
         <v>168</v>
       </c>
@@ -13733,11 +13710,11 @@
       </c>
       <c r="G226" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H226" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>209</v>
@@ -13758,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B227" s="4" t="s">
         <v>168</v>
       </c>
@@ -13776,11 +13753,11 @@
       </c>
       <c r="G227" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H227" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>209</v>
@@ -13801,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B228" s="4" t="s">
         <v>168</v>
       </c>
@@ -13819,11 +13796,11 @@
       </c>
       <c r="G228" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H228" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>209</v>
@@ -13844,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B229" s="4" t="s">
         <v>168</v>
       </c>
@@ -13862,11 +13839,11 @@
       </c>
       <c r="G229" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H229" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I229" s="4" t="s">
         <v>209</v>
@@ -13887,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B230" s="4" t="s">
         <v>168</v>
       </c>
@@ -13905,11 +13882,11 @@
       </c>
       <c r="G230" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H230" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>27.764223263890017</v>
+        <v>32.736397916669375</v>
       </c>
       <c r="I230" s="4" t="s">
         <v>209</v>
@@ -13930,7 +13907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B231" s="11" t="s">
         <v>184</v>
       </c>
@@ -13948,11 +13925,11 @@
       </c>
       <c r="G231" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H231" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>220</v>
@@ -13976,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B232" s="11" t="s">
         <v>184</v>
       </c>
@@ -13994,11 +13971,11 @@
       </c>
       <c r="G232" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H232" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I232" s="4" t="s">
         <v>220</v>
@@ -14022,7 +13999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B233" s="11" t="s">
         <v>184</v>
       </c>
@@ -14040,11 +14017,11 @@
       </c>
       <c r="G233" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H233" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I233" s="4" t="s">
         <v>220</v>
@@ -14068,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B234" s="11" t="s">
         <v>184</v>
       </c>
@@ -14086,11 +14063,11 @@
       </c>
       <c r="G234" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H234" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I234" s="4" t="s">
         <v>220</v>
@@ -14114,7 +14091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B235" s="11" t="s">
         <v>184</v>
       </c>
@@ -14132,11 +14109,11 @@
       </c>
       <c r="G235" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H235" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.764223263890017</v>
+        <v>18.736397916669375</v>
       </c>
       <c r="I235" s="4" t="s">
         <v>220</v>
@@ -14160,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B236" s="11" t="s">
         <v>184</v>
       </c>
@@ -14178,11 +14155,11 @@
       </c>
       <c r="G236" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H236" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I236" s="4" t="s">
         <v>220</v>
@@ -14206,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B237" s="11" t="s">
         <v>184</v>
       </c>
@@ -14224,11 +14201,11 @@
       </c>
       <c r="G237" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H237" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I237" s="4" t="s">
         <v>220</v>
@@ -14252,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B238" s="11" t="s">
         <v>184</v>
       </c>
@@ -14270,11 +14247,11 @@
       </c>
       <c r="G238" s="2">
         <f t="shared" ref="G238:G240" ca="1" si="10">IF(E238="DONE",NOW()-D238, NOW()-D238)</f>
-        <v>17.764223263890017</v>
+        <v>22.736397916669375</v>
       </c>
       <c r="H238" s="2">
         <f t="shared" ref="H238:H240" ca="1" si="11">IF(E238="DONE", "", NOW()-F238)</f>
-        <v>9.7642232638900168</v>
+        <v>14.736397916669375</v>
       </c>
       <c r="I238" s="4" t="s">
         <v>220</v>
@@ -14298,7 +14275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B239" s="11" t="s">
         <v>184</v>
       </c>
@@ -14316,11 +14293,11 @@
       </c>
       <c r="G239" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="H239" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1.7642232638900168</v>
+        <v>6.7363979166693753</v>
       </c>
       <c r="I239" s="4" t="s">
         <v>220</v>
@@ -14341,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B240" s="11" t="s">
         <v>184</v>
       </c>
@@ -14359,11 +14336,11 @@
       </c>
       <c r="G240" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="H240" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1.7642232638900168</v>
+        <v>6.7363979166693753</v>
       </c>
       <c r="I240" s="4" t="s">
         <v>220</v>
@@ -14384,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B241" s="11" t="s">
         <v>184</v>
       </c>
@@ -14402,11 +14379,11 @@
       </c>
       <c r="G241" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="H241" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I241" s="4" t="s">
         <v>220</v>
@@ -14427,7 +14404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B242" s="11" t="s">
         <v>184</v>
       </c>
@@ -14445,11 +14422,11 @@
       </c>
       <c r="G242" s="2">
         <f t="shared" ref="G242" ca="1" si="12">IF(E242="DONE",NOW()-D242, NOW()-D242)</f>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="H242" s="2">
         <f t="shared" ref="H242" ca="1" si="13">IF(E242="DONE", "", NOW()-F242)</f>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I242" s="4" t="s">
         <v>220</v>
@@ -14470,7 +14447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B243" s="11" t="s">
         <v>176</v>
       </c>
@@ -14488,11 +14465,11 @@
       </c>
       <c r="G243" s="2">
         <f t="shared" ref="G243:G245" ca="1" si="14">IF(E243="DONE",NOW()-D243, NOW()-D243)</f>
-        <v>20.764223263890017</v>
+        <v>25.736397916669375</v>
       </c>
       <c r="H243" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I243" s="4" t="s">
         <v>209</v>
@@ -14513,7 +14490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244" s="11" t="s">
         <v>176</v>
       </c>
@@ -14531,11 +14508,11 @@
       </c>
       <c r="G244" s="2">
         <f t="shared" ref="G244" ca="1" si="15">IF(E244="DONE",NOW()-D244, NOW()-D244)</f>
-        <v>20.764223263890017</v>
+        <v>25.736397916669375</v>
       </c>
       <c r="H244" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I244" s="4" t="s">
         <v>209</v>
@@ -14556,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B245" s="11" t="s">
         <v>176</v>
       </c>
@@ -14574,11 +14551,11 @@
       </c>
       <c r="G245" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>20.764223263890017</v>
+        <v>25.736397916669375</v>
       </c>
       <c r="H245" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I245" s="4" t="s">
         <v>209</v>
@@ -14599,7 +14576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B246" s="11" t="s">
         <v>176</v>
       </c>
@@ -14617,11 +14594,11 @@
       </c>
       <c r="G246" s="2">
         <f t="shared" ref="G246" ca="1" si="16">IF(E246="DONE",NOW()-D246, NOW()-D246)</f>
-        <v>20.764223263890017</v>
+        <v>25.736397916669375</v>
       </c>
       <c r="H246" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7642232638900168</v>
+        <v>11.736397916669375</v>
       </c>
       <c r="I246" s="4" t="s">
         <v>209</v>
@@ -14642,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B247" s="4" t="s">
         <v>106</v>
       </c>
@@ -14660,11 +14637,11 @@
       </c>
       <c r="G247" s="2">
         <f t="shared" ref="G247:G249" ca="1" si="17">IF(E247="DONE",NOW()-D247, NOW()-D247)</f>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H247" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>20.764223263890017</v>
+        <v>25.736397916669375</v>
       </c>
       <c r="I247" s="4" t="s">
         <v>212</v>
@@ -14688,7 +14665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B248" s="4" t="s">
         <v>106</v>
       </c>
@@ -14706,11 +14683,11 @@
       </c>
       <c r="G248" s="2">
         <f t="shared" ref="G248" ca="1" si="18">IF(E248="DONE",NOW()-D248, NOW()-D248)</f>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H248" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>20.764223263890017</v>
+        <v>25.736397916669375</v>
       </c>
       <c r="I248" s="4" t="s">
         <v>212</v>
@@ -14734,7 +14711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B249" s="4" t="s">
         <v>107</v>
       </c>
@@ -14752,11 +14729,11 @@
       </c>
       <c r="G249" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H249" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I249" s="4" t="s">
         <v>220</v>
@@ -14774,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B250" s="4" t="s">
         <v>100</v>
       </c>
@@ -14792,11 +14769,11 @@
       </c>
       <c r="G250" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H250" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I250" s="4" t="s">
         <v>220</v>
@@ -14814,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B251" s="4" t="s">
         <v>105</v>
       </c>
@@ -14832,11 +14809,11 @@
       </c>
       <c r="G251" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H251" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I251" s="4" t="s">
         <v>212</v>
@@ -14860,7 +14837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B252" s="4" t="s">
         <v>105</v>
       </c>
@@ -14878,11 +14855,11 @@
       </c>
       <c r="G252" s="2">
         <f t="shared" ref="G252" ca="1" si="19">IF(E252="DONE",NOW()-D252, NOW()-D252)</f>
-        <v>41.764223263890017</v>
+        <v>46.736397916669375</v>
       </c>
       <c r="H252" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7642232638900168</v>
+        <v>13.736397916669375</v>
       </c>
       <c r="I252" s="4" t="s">
         <v>212</v>
@@ -14993,25 +14970,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
       <formula1>PROJECT</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576">
       <formula1>AREA</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>PIC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576">
       <formula1>TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>DOC_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>PROJECT_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
       <formula1>STATUS</formula1>
     </dataValidation>
   </dataValidations>
@@ -15021,79 +14998,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349348E9-27AF-4A78-9BA2-6A74D076491C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+      <c r="I3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -15103,21 +15126,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -15125,7 +15148,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -15133,7 +15156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -15141,7 +15164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -15149,7 +15172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -15157,7 +15180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -15165,7 +15188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -15173,7 +15196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -15181,7 +15204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -15195,29 +15218,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>361</v>
       </c>
@@ -15237,7 +15260,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -15269,7 +15292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15301,7 +15324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -15333,7 +15356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -15353,7 +15376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -15373,7 +15396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -15387,7 +15410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -15401,7 +15424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -15415,7 +15438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -15429,7 +15452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -15443,7 +15466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -15457,7 +15480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>220</v>
       </c>
@@ -15468,7 +15491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>213</v>
       </c>
@@ -15479,7 +15502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>209</v>
       </c>
@@ -15490,7 +15513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>201</v>
       </c>
@@ -15498,7 +15521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>200</v>
       </c>
@@ -15506,7 +15529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>198</v>
       </c>
@@ -15514,7 +15537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>208</v>
       </c>
@@ -15522,7 +15545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>207</v>
       </c>
@@ -15530,7 +15553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>206</v>
       </c>
@@ -15538,7 +15561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>215</v>
       </c>
@@ -15546,27 +15569,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>212</v>
       </c>

--- a/data/ENROLLMENT RAW REF.xlsx
+++ b/data/ENROLLMENT RAW REF.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHTadenaFr\Documents\tbmc-data-management\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7758A5E-2EED-42DC-B172-2F7A336B7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="514" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="514" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="18" r:id="rId1"/>
@@ -105,9 +106,9 @@
     <definedName name="z">#REF!</definedName>
     <definedName name="zz">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1270,7 +1271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -1356,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,12 +1405,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,7 +1414,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -1874,6 +1869,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2743,7 +2779,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ERSA_Z3Jul1009"/>
@@ -2758,7 +2794,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="PHTadenaFr" refreshedDate="45509.612140393518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="247">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PHTadenaFr" refreshedDate="45509.612140393518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="247" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:A248" sheet="Sheet1"/>
   </cacheSource>
@@ -3531,7 +3567,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -3881,36 +3917,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:O252"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.44140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>363</v>
       </c>
@@ -3926,13 +3962,13 @@
       <c r="E1" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>362</v>
       </c>
       <c r="I1" s="17" t="s">
@@ -3957,7 +3993,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>232</v>
       </c>
@@ -3973,10 +4009,10 @@
       <c r="E2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>234</v>
       </c>
       <c r="H2" s="20" t="s">
@@ -4004,7 +4040,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
@@ -4022,7 +4058,7 @@
       </c>
       <c r="G3" s="2">
         <f ca="1">IF(E3="DONE",NOW()-D3, NOW()-D3)</f>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H3" s="2" t="str">
         <f ca="1">IF(E3="DONE", "", NOW()-F3)</f>
@@ -4047,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>95</v>
       </c>
@@ -4065,7 +4101,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G68" ca="1" si="0">IF(E4="DONE",NOW()-D4, NOW()-D4)</f>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" ref="H4:H68" ca="1" si="1">IF(E4="DONE", "", NOW()-F4)</f>
@@ -4090,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
@@ -4108,7 +4144,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4133,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
@@ -4151,7 +4187,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4176,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>95</v>
       </c>
@@ -4194,7 +4230,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4219,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>95</v>
       </c>
@@ -4237,7 +4273,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4262,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>95</v>
       </c>
@@ -4280,7 +4316,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4305,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
@@ -4323,7 +4359,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4348,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>95</v>
       </c>
@@ -4366,7 +4402,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4391,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>95</v>
       </c>
@@ -4409,7 +4445,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4434,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>95</v>
       </c>
@@ -4452,7 +4488,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4477,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>95</v>
       </c>
@@ -4495,7 +4531,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4520,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>95</v>
       </c>
@@ -4538,7 +4574,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4563,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>95</v>
       </c>
@@ -4581,7 +4617,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4606,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
@@ -4624,7 +4660,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4649,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>95</v>
       </c>
@@ -4667,7 +4703,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4692,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
@@ -4710,7 +4746,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4735,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
@@ -4753,11 +4789,11 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>220</v>
@@ -4778,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
@@ -4796,11 +4832,11 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>220</v>
@@ -4821,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
@@ -4839,11 +4875,11 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>220</v>
@@ -4864,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>92</v>
       </c>
@@ -4882,11 +4918,11 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>220</v>
@@ -4907,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
@@ -4925,11 +4961,11 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>220</v>
@@ -4950,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
@@ -4968,11 +5004,11 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>220</v>
@@ -4993,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>92</v>
       </c>
@@ -5011,11 +5047,11 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>220</v>
@@ -5036,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>92</v>
       </c>
@@ -5054,11 +5090,11 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>220</v>
@@ -5079,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
@@ -5097,11 +5133,11 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>220</v>
@@ -5122,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>92</v>
       </c>
@@ -5140,11 +5176,11 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>220</v>
@@ -5165,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
@@ -5183,11 +5219,11 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>220</v>
@@ -5208,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>94</v>
       </c>
@@ -5226,7 +5262,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5251,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>99</v>
       </c>
@@ -5269,7 +5305,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>168.73639791666938</v>
+        <v>168.94806458333187</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5294,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>108</v>
       </c>
@@ -5312,11 +5348,11 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>209</v>
@@ -5337,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>108</v>
       </c>
@@ -5355,11 +5391,11 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>209</v>
@@ -5380,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>108</v>
       </c>
@@ -5398,11 +5434,11 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>209</v>
@@ -5423,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>108</v>
       </c>
@@ -5441,11 +5477,11 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>209</v>
@@ -5466,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>108</v>
       </c>
@@ -5484,11 +5520,11 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>209</v>
@@ -5509,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
@@ -5527,11 +5563,11 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>209</v>
@@ -5552,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>93</v>
       </c>
@@ -5570,11 +5606,11 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>209</v>
@@ -5595,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>93</v>
       </c>
@@ -5613,11 +5649,11 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>209</v>
@@ -5638,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>93</v>
       </c>
@@ -5656,11 +5692,11 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>209</v>
@@ -5681,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>93</v>
       </c>
@@ -5699,11 +5735,11 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>209</v>
@@ -5724,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>93</v>
       </c>
@@ -5742,11 +5778,11 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>209</v>
@@ -5767,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
@@ -5785,11 +5821,11 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>209</v>
@@ -5810,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>93</v>
       </c>
@@ -5828,11 +5864,11 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>209</v>
@@ -5856,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
@@ -5874,11 +5910,11 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>209</v>
@@ -5902,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
@@ -5920,11 +5956,11 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>209</v>
@@ -5948,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>184</v>
       </c>
@@ -5966,11 +6002,11 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" ref="G48" ca="1" si="2">IF(E48="DONE",NOW()-D48, NOW()-D48)</f>
-        <v>39.736397916669375</v>
+        <v>39.948064467593213</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" ref="H48" ca="1" si="3">IF(E48="DONE", "", NOW()-F48)</f>
-        <v>7.7363979166693753</v>
+        <v>7.9480644675932126</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>209</v>
@@ -5991,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>184</v>
       </c>
@@ -6009,11 +6045,11 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39.736397916669375</v>
+        <v>39.94806458333187</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7363979166693753</v>
+        <v>7.9480645833318704</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>209</v>
@@ -6034,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>168</v>
       </c>
@@ -6052,11 +6088,11 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>209</v>
@@ -6077,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>168</v>
       </c>
@@ -6095,11 +6131,11 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>209</v>
@@ -6120,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>168</v>
       </c>
@@ -6138,11 +6174,11 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>209</v>
@@ -6163,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>168</v>
       </c>
@@ -6181,11 +6217,11 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>209</v>
@@ -6206,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>168</v>
       </c>
@@ -6224,11 +6260,11 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>209</v>
@@ -6249,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>168</v>
       </c>
@@ -6267,11 +6303,11 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>209</v>
@@ -6292,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>168</v>
       </c>
@@ -6310,11 +6346,11 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>209</v>
@@ -6335,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>168</v>
       </c>
@@ -6353,11 +6389,11 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>209</v>
@@ -6378,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>168</v>
       </c>
@@ -6396,11 +6432,11 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>209</v>
@@ -6421,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>95</v>
       </c>
@@ -6439,11 +6475,11 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>209</v>
@@ -6464,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>95</v>
       </c>
@@ -6482,11 +6518,11 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>209</v>
@@ -6507,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>95</v>
       </c>
@@ -6525,11 +6561,11 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>209</v>
@@ -6550,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>95</v>
       </c>
@@ -6568,11 +6604,11 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>209</v>
@@ -6593,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>95</v>
       </c>
@@ -6611,11 +6647,11 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>209</v>
@@ -6636,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>95</v>
       </c>
@@ -6654,11 +6690,11 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>209</v>
@@ -6679,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>95</v>
       </c>
@@ -6697,11 +6733,11 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>209</v>
@@ -6722,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>95</v>
       </c>
@@ -6740,7 +6776,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H66" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6765,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>95</v>
       </c>
@@ -6783,7 +6819,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H67" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6808,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>95</v>
       </c>
@@ -6826,7 +6862,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H68" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6851,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>95</v>
       </c>
@@ -6869,7 +6905,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" ref="G69:G132" ca="1" si="4">IF(E69="DONE",NOW()-D69, NOW()-D69)</f>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H69" s="2" t="str">
         <f t="shared" ref="H69:H132" ca="1" si="5">IF(E69="DONE", "", NOW()-F69)</f>
@@ -6894,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>95</v>
       </c>
@@ -6912,7 +6948,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H70" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6937,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>95</v>
       </c>
@@ -6955,7 +6991,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H71" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6980,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>95</v>
       </c>
@@ -6998,7 +7034,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H72" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7023,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
@@ -7041,7 +7077,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H73" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7066,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>95</v>
       </c>
@@ -7084,7 +7120,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>228.73639791666938</v>
+        <v>228.94806458333187</v>
       </c>
       <c r="H74" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7109,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>95</v>
       </c>
@@ -7127,11 +7163,11 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7.7363979166693753</v>
+        <v>7.9480645833318704</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>198</v>
@@ -7152,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>95</v>
       </c>
@@ -7170,11 +7206,11 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>137.73639791666938</v>
+        <v>137.94806458333187</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>209</v>
@@ -7195,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
@@ -7213,7 +7249,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H77" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7238,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>95</v>
       </c>
@@ -7256,7 +7292,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H78" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7281,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>95</v>
       </c>
@@ -7299,7 +7335,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H79" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7324,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>92</v>
       </c>
@@ -7342,7 +7378,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H80" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7367,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>92</v>
       </c>
@@ -7385,7 +7421,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H81" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7410,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>92</v>
       </c>
@@ -7428,7 +7464,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H82" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7453,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>92</v>
       </c>
@@ -7471,7 +7507,7 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H83" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7496,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>92</v>
       </c>
@@ -7514,7 +7550,7 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H84" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7539,7 +7575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>92</v>
       </c>
@@ -7557,7 +7593,7 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H85" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7582,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>92</v>
       </c>
@@ -7600,7 +7636,7 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H86" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7625,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>92</v>
       </c>
@@ -7643,7 +7679,7 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H87" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7668,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>92</v>
       </c>
@@ -7686,7 +7722,7 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H88" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7711,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>92</v>
       </c>
@@ -7729,7 +7765,7 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H89" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7754,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>92</v>
       </c>
@@ -7772,7 +7808,7 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H90" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7797,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>92</v>
       </c>
@@ -7815,7 +7851,7 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H91" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7840,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>92</v>
       </c>
@@ -7858,7 +7894,7 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H92" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7883,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>92</v>
       </c>
@@ -7901,7 +7937,7 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H93" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7926,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>92</v>
       </c>
@@ -7944,7 +7980,7 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H94" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7969,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>92</v>
       </c>
@@ -7987,7 +8023,7 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H95" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8012,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>92</v>
       </c>
@@ -8030,7 +8066,7 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H96" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8055,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>92</v>
       </c>
@@ -8073,7 +8109,7 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H97" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8098,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>92</v>
       </c>
@@ -8116,7 +8152,7 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H98" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8141,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
@@ -8159,7 +8195,7 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H99" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8184,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
@@ -8202,7 +8238,7 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H100" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8227,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -8245,7 +8281,7 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H101" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8270,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>92</v>
       </c>
@@ -8288,7 +8324,7 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H102" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8313,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>92</v>
       </c>
@@ -8331,7 +8367,7 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H103" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8356,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
         <v>92</v>
       </c>
@@ -8374,7 +8410,7 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H104" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8399,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>92</v>
       </c>
@@ -8417,7 +8453,7 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H105" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8442,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>92</v>
       </c>
@@ -8460,7 +8496,7 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H106" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8485,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>92</v>
       </c>
@@ -8503,7 +8539,7 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H107" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8528,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>92</v>
       </c>
@@ -8546,7 +8582,7 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H108" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8571,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>92</v>
       </c>
@@ -8589,7 +8625,7 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H109" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8614,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>92</v>
       </c>
@@ -8632,7 +8668,7 @@
       </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H110" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8657,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
         <v>92</v>
       </c>
@@ -8675,7 +8711,7 @@
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H111" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8700,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
         <v>92</v>
       </c>
@@ -8718,7 +8754,7 @@
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H112" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8743,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>92</v>
       </c>
@@ -8761,7 +8797,7 @@
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H113" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8786,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>92</v>
       </c>
@@ -8804,7 +8840,7 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H114" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8829,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
         <v>92</v>
       </c>
@@ -8847,7 +8883,7 @@
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H115" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8872,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
         <v>92</v>
       </c>
@@ -8890,7 +8926,7 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H116" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8915,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
         <v>92</v>
       </c>
@@ -8933,7 +8969,7 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H117" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8958,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>92</v>
       </c>
@@ -8976,7 +9012,7 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H118" s="2" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9001,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>92</v>
       </c>
@@ -9019,11 +9055,11 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H119" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>220</v>
@@ -9044,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>92</v>
       </c>
@@ -9062,11 +9098,11 @@
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H120" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>220</v>
@@ -9087,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>92</v>
       </c>
@@ -9105,11 +9141,11 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H121" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>220</v>
@@ -9130,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>92</v>
       </c>
@@ -9148,11 +9184,11 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H122" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>220</v>
@@ -9173,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
         <v>92</v>
       </c>
@@ -9191,11 +9227,11 @@
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>220</v>
@@ -9216,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
         <v>92</v>
       </c>
@@ -9234,11 +9270,11 @@
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>220</v>
@@ -9259,7 +9295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>92</v>
       </c>
@@ -9277,11 +9313,11 @@
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>220</v>
@@ -9302,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>92</v>
       </c>
@@ -9320,11 +9356,11 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>220</v>
@@ -9345,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
         <v>92</v>
       </c>
@@ -9363,11 +9399,11 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>209</v>
@@ -9388,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
         <v>92</v>
       </c>
@@ -9406,11 +9442,11 @@
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>209</v>
@@ -9431,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
         <v>92</v>
       </c>
@@ -9449,11 +9485,11 @@
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>209</v>
@@ -9474,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>92</v>
       </c>
@@ -9492,11 +9528,11 @@
       </c>
       <c r="G130" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>209</v>
@@ -9517,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>92</v>
       </c>
@@ -9535,11 +9571,11 @@
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>209</v>
@@ -9560,7 +9596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>92</v>
       </c>
@@ -9578,11 +9614,11 @@
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>209</v>
@@ -9603,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>92</v>
       </c>
@@ -9621,11 +9657,11 @@
       </c>
       <c r="G133" s="2">
         <f t="shared" ref="G133:G207" ca="1" si="6">IF(E133="DONE",NOW()-D133, NOW()-D133)</f>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" ref="H133:H196" ca="1" si="7">IF(E133="DONE", "", NOW()-F133)</f>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>209</v>
@@ -9646,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>92</v>
       </c>
@@ -9664,11 +9700,11 @@
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>209</v>
@@ -9689,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
         <v>92</v>
       </c>
@@ -9707,11 +9743,11 @@
       </c>
       <c r="G135" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>209</v>
@@ -9732,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
         <v>92</v>
       </c>
@@ -9750,11 +9786,11 @@
       </c>
       <c r="G136" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H136" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>209</v>
@@ -9775,7 +9811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
         <v>92</v>
       </c>
@@ -9793,11 +9829,11 @@
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>209</v>
@@ -9818,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
         <v>92</v>
       </c>
@@ -9836,11 +9872,11 @@
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>209</v>
@@ -9861,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
         <v>92</v>
       </c>
@@ -9879,11 +9915,11 @@
       </c>
       <c r="G139" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>209</v>
@@ -9904,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
         <v>92</v>
       </c>
@@ -9922,11 +9958,11 @@
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>209</v>
@@ -9947,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
         <v>92</v>
       </c>
@@ -9965,11 +10001,11 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>209</v>
@@ -9990,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
         <v>92</v>
       </c>
@@ -10008,11 +10044,11 @@
       </c>
       <c r="G142" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>209</v>
@@ -10033,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
         <v>92</v>
       </c>
@@ -10051,11 +10087,11 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>209</v>
@@ -10076,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
         <v>92</v>
       </c>
@@ -10094,11 +10130,11 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>220</v>
@@ -10119,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>92</v>
       </c>
@@ -10137,11 +10173,11 @@
       </c>
       <c r="G145" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>220</v>
@@ -10162,7 +10198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>92</v>
       </c>
@@ -10180,11 +10216,11 @@
       </c>
       <c r="G146" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>220</v>
@@ -10205,7 +10241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>92</v>
       </c>
@@ -10223,11 +10259,11 @@
       </c>
       <c r="G147" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>220</v>
@@ -10248,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>92</v>
       </c>
@@ -10266,11 +10302,11 @@
       </c>
       <c r="G148" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>220</v>
@@ -10291,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>92</v>
       </c>
@@ -10309,11 +10345,11 @@
       </c>
       <c r="G149" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>220</v>
@@ -10334,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>92</v>
       </c>
@@ -10352,11 +10388,11 @@
       </c>
       <c r="G150" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>220</v>
@@ -10377,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>92</v>
       </c>
@@ -10395,11 +10431,11 @@
       </c>
       <c r="G151" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>220</v>
@@ -10420,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
         <v>92</v>
       </c>
@@ -10438,11 +10474,11 @@
       </c>
       <c r="G152" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7363979166693753</v>
+        <v>8.9480645833318704</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>220</v>
@@ -10463,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
         <v>94</v>
       </c>
@@ -10481,7 +10517,7 @@
       </c>
       <c r="G153" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H153" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10506,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
         <v>94</v>
       </c>
@@ -10524,7 +10560,7 @@
       </c>
       <c r="G154" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H154" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10549,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
         <v>94</v>
       </c>
@@ -10567,7 +10603,7 @@
       </c>
       <c r="G155" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H155" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10592,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
         <v>94</v>
       </c>
@@ -10610,7 +10646,7 @@
       </c>
       <c r="G156" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H156" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10635,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
         <v>99</v>
       </c>
@@ -10653,7 +10689,7 @@
       </c>
       <c r="G157" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H157" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10678,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
         <v>99</v>
       </c>
@@ -10696,7 +10732,7 @@
       </c>
       <c r="G158" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H158" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10721,7 +10757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
         <v>99</v>
       </c>
@@ -10739,7 +10775,7 @@
       </c>
       <c r="G159" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H159" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10764,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
         <v>99</v>
       </c>
@@ -10782,7 +10818,7 @@
       </c>
       <c r="G160" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H160" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -10807,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
         <v>99</v>
       </c>
@@ -10825,11 +10861,11 @@
       </c>
       <c r="G161" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="H161" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>198</v>
@@ -10853,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
         <v>108</v>
       </c>
@@ -10871,11 +10907,11 @@
       </c>
       <c r="G162" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H162" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7363979166693753</v>
+        <v>7.9480645833318704</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>198</v>
@@ -10896,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
         <v>108</v>
       </c>
@@ -10914,11 +10950,11 @@
       </c>
       <c r="G163" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H163" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>209</v>
@@ -10942,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
         <v>108</v>
       </c>
@@ -10960,11 +10996,11 @@
       </c>
       <c r="G164" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H164" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>209</v>
@@ -10988,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
         <v>108</v>
       </c>
@@ -11006,11 +11042,11 @@
       </c>
       <c r="G165" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H165" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>209</v>
@@ -11034,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
         <v>108</v>
       </c>
@@ -11052,11 +11088,11 @@
       </c>
       <c r="G166" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H166" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="I166" s="4" t="s">
         <v>209</v>
@@ -11080,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
         <v>108</v>
       </c>
@@ -11098,11 +11134,11 @@
       </c>
       <c r="G167" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H167" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="I167" s="4" t="s">
         <v>209</v>
@@ -11126,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
         <v>108</v>
       </c>
@@ -11144,11 +11180,11 @@
       </c>
       <c r="G168" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H168" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>107.73639791666938</v>
+        <v>107.94806458333187</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>209</v>
@@ -11172,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B169" s="4" t="s">
         <v>108</v>
       </c>
@@ -11190,11 +11226,11 @@
       </c>
       <c r="G169" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>76.736397916669375</v>
+        <v>76.94806458333187</v>
       </c>
       <c r="H169" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>7.7363979166693753</v>
+        <v>7.9480645833318704</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>198</v>
@@ -11215,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>817330413</v>
       </c>
@@ -11236,11 +11272,11 @@
       </c>
       <c r="G170" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H170" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I170" s="4" t="s">
         <v>322</v>
@@ -11264,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>180350376</v>
       </c>
@@ -11285,11 +11321,11 @@
       </c>
       <c r="G171" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H171" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I171" s="4" t="s">
         <v>322</v>
@@ -11313,7 +11349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>180350029</v>
       </c>
@@ -11334,11 +11370,11 @@
       </c>
       <c r="G172" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H172" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I172" s="4" t="s">
         <v>322</v>
@@ -11362,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>817330413</v>
       </c>
@@ -11383,11 +11419,11 @@
       </c>
       <c r="G173" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H173" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>322</v>
@@ -11411,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>180350376</v>
       </c>
@@ -11432,11 +11468,11 @@
       </c>
       <c r="G174" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H174" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>322</v>
@@ -11460,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>180350029</v>
       </c>
@@ -11481,11 +11517,11 @@
       </c>
       <c r="G175" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H175" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I175" s="4" t="s">
         <v>322</v>
@@ -11509,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>816310629</v>
       </c>
@@ -11530,11 +11566,11 @@
       </c>
       <c r="G176" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H176" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>322</v>
@@ -11558,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>180350364</v>
       </c>
@@ -11579,11 +11615,11 @@
       </c>
       <c r="G177" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H177" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I177" s="4" t="s">
         <v>322</v>
@@ -11607,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>180350022</v>
       </c>
@@ -11628,11 +11664,11 @@
       </c>
       <c r="G178" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H178" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I178" s="4" t="s">
         <v>322</v>
@@ -11656,7 +11692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>816330271</v>
       </c>
@@ -11677,11 +11713,11 @@
       </c>
       <c r="G179" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H179" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I179" s="4" t="s">
         <v>322</v>
@@ -11705,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>1803500377</v>
       </c>
@@ -11726,11 +11762,11 @@
       </c>
       <c r="G180" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="H180" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>322</v>
@@ -11754,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B181" s="11" t="s">
         <v>93</v>
       </c>
@@ -11772,11 +11808,11 @@
       </c>
       <c r="G181" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H181" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I181" s="4" t="s">
         <v>209</v>
@@ -11797,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B182" s="11" t="s">
         <v>93</v>
       </c>
@@ -11815,11 +11851,11 @@
       </c>
       <c r="G182" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H182" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>209</v>
@@ -11840,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B183" s="11" t="s">
         <v>93</v>
       </c>
@@ -11858,11 +11894,11 @@
       </c>
       <c r="G183" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H183" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>209</v>
@@ -11883,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B184" s="11" t="s">
         <v>93</v>
       </c>
@@ -11901,11 +11937,11 @@
       </c>
       <c r="G184" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H184" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>322</v>
@@ -11929,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B185" s="11" t="s">
         <v>93</v>
       </c>
@@ -11947,11 +11983,11 @@
       </c>
       <c r="G185" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H185" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>209</v>
@@ -11972,7 +12008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B186" s="11" t="s">
         <v>93</v>
       </c>
@@ -11990,11 +12026,11 @@
       </c>
       <c r="G186" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H186" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>209</v>
@@ -12015,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B187" s="11" t="s">
         <v>93</v>
       </c>
@@ -12033,11 +12069,11 @@
       </c>
       <c r="G187" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H187" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>209</v>
@@ -12058,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B188" s="11" t="s">
         <v>93</v>
       </c>
@@ -12076,11 +12112,11 @@
       </c>
       <c r="G188" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H188" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>209</v>
@@ -12101,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B189" s="11" t="s">
         <v>93</v>
       </c>
@@ -12119,11 +12155,11 @@
       </c>
       <c r="G189" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H189" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>209</v>
@@ -12144,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B190" s="11" t="s">
         <v>93</v>
       </c>
@@ -12162,11 +12198,11 @@
       </c>
       <c r="G190" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H190" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I190" s="4" t="s">
         <v>209</v>
@@ -12187,7 +12223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B191" s="11" t="s">
         <v>93</v>
       </c>
@@ -12205,11 +12241,11 @@
       </c>
       <c r="G191" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H191" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I191" s="4" t="s">
         <v>209</v>
@@ -12230,7 +12266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B192" s="11" t="s">
         <v>93</v>
       </c>
@@ -12248,11 +12284,11 @@
       </c>
       <c r="G192" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H192" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I192" s="4" t="s">
         <v>209</v>
@@ -12273,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B193" s="11" t="s">
         <v>93</v>
       </c>
@@ -12291,11 +12327,11 @@
       </c>
       <c r="G193" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H193" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I193" s="4" t="s">
         <v>209</v>
@@ -12316,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B194" s="11" t="s">
         <v>93</v>
       </c>
@@ -12334,11 +12370,11 @@
       </c>
       <c r="G194" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H194" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I194" s="4" t="s">
         <v>209</v>
@@ -12359,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B195" s="11" t="s">
         <v>93</v>
       </c>
@@ -12377,11 +12413,11 @@
       </c>
       <c r="G195" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H195" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I195" s="4" t="s">
         <v>209</v>
@@ -12402,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B196" s="11" t="s">
         <v>93</v>
       </c>
@@ -12420,11 +12456,11 @@
       </c>
       <c r="G196" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H196" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I196" s="4" t="s">
         <v>209</v>
@@ -12445,7 +12481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B197" s="11" t="s">
         <v>93</v>
       </c>
@@ -12463,11 +12499,11 @@
       </c>
       <c r="G197" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H197" s="2">
         <f t="shared" ref="H197:H252" ca="1" si="8">IF(E197="DONE", "", NOW()-F197)</f>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>209</v>
@@ -12488,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B198" s="11" t="s">
         <v>93</v>
       </c>
@@ -12506,11 +12542,11 @@
       </c>
       <c r="G198" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H198" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>209</v>
@@ -12531,7 +12567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B199" s="11" t="s">
         <v>93</v>
       </c>
@@ -12549,11 +12585,11 @@
       </c>
       <c r="G199" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H199" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>209</v>
@@ -12574,7 +12610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B200" s="11" t="s">
         <v>93</v>
       </c>
@@ -12592,11 +12628,11 @@
       </c>
       <c r="G200" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H200" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I200" s="4" t="s">
         <v>209</v>
@@ -12617,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B201" s="11" t="s">
         <v>93</v>
       </c>
@@ -12635,11 +12671,11 @@
       </c>
       <c r="G201" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H201" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I201" s="4" t="s">
         <v>209</v>
@@ -12660,7 +12696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B202" s="11" t="s">
         <v>93</v>
       </c>
@@ -12678,11 +12714,11 @@
       </c>
       <c r="G202" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H202" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I202" s="4" t="s">
         <v>209</v>
@@ -12703,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B203" s="11" t="s">
         <v>93</v>
       </c>
@@ -12721,11 +12757,11 @@
       </c>
       <c r="G203" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H203" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="I203" s="4" t="s">
         <v>209</v>
@@ -12746,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
         <v>168</v>
       </c>
@@ -12764,11 +12800,11 @@
       </c>
       <c r="G204" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H204" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I204" s="4" t="s">
         <v>209</v>
@@ -12789,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B205" s="4" t="s">
         <v>168</v>
       </c>
@@ -12807,11 +12843,11 @@
       </c>
       <c r="G205" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H205" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>209</v>
@@ -12832,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
         <v>168</v>
       </c>
@@ -12850,11 +12886,11 @@
       </c>
       <c r="G206" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H206" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>209</v>
@@ -12875,7 +12911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B207" s="4" t="s">
         <v>168</v>
       </c>
@@ -12893,11 +12929,11 @@
       </c>
       <c r="G207" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H207" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>209</v>
@@ -12918,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B208" s="4" t="s">
         <v>168</v>
       </c>
@@ -12936,11 +12972,11 @@
       </c>
       <c r="G208" s="2">
         <f t="shared" ref="G208:G251" ca="1" si="9">IF(E208="DONE",NOW()-D208, NOW()-D208)</f>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H208" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>209</v>
@@ -12961,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
         <v>168</v>
       </c>
@@ -12979,11 +13015,11 @@
       </c>
       <c r="G209" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H209" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I209" s="4" t="s">
         <v>209</v>
@@ -13004,7 +13040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
         <v>168</v>
       </c>
@@ -13022,11 +13058,11 @@
       </c>
       <c r="G210" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H210" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I210" s="4" t="s">
         <v>209</v>
@@ -13047,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B211" s="4" t="s">
         <v>168</v>
       </c>
@@ -13065,11 +13101,11 @@
       </c>
       <c r="G211" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H211" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I211" s="4" t="s">
         <v>209</v>
@@ -13090,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B212" s="4" t="s">
         <v>168</v>
       </c>
@@ -13108,11 +13144,11 @@
       </c>
       <c r="G212" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H212" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>209</v>
@@ -13133,7 +13169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B213" s="4" t="s">
         <v>168</v>
       </c>
@@ -13151,11 +13187,11 @@
       </c>
       <c r="G213" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H213" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I213" s="4" t="s">
         <v>209</v>
@@ -13176,7 +13212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B214" s="4" t="s">
         <v>168</v>
       </c>
@@ -13194,11 +13230,11 @@
       </c>
       <c r="G214" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H214" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I214" s="4" t="s">
         <v>209</v>
@@ -13219,7 +13255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B215" s="4" t="s">
         <v>168</v>
       </c>
@@ -13237,11 +13273,11 @@
       </c>
       <c r="G215" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H215" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I215" s="4" t="s">
         <v>209</v>
@@ -13262,7 +13298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B216" s="4" t="s">
         <v>168</v>
       </c>
@@ -13280,11 +13316,11 @@
       </c>
       <c r="G216" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H216" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I216" s="4" t="s">
         <v>209</v>
@@ -13305,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B217" s="4" t="s">
         <v>168</v>
       </c>
@@ -13323,11 +13359,11 @@
       </c>
       <c r="G217" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H217" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I217" s="4" t="s">
         <v>209</v>
@@ -13348,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
         <v>168</v>
       </c>
@@ -13366,11 +13402,11 @@
       </c>
       <c r="G218" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H218" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I218" s="4" t="s">
         <v>209</v>
@@ -13391,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B219" s="4" t="s">
         <v>168</v>
       </c>
@@ -13409,11 +13445,11 @@
       </c>
       <c r="G219" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H219" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I219" s="4" t="s">
         <v>209</v>
@@ -13434,7 +13470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
         <v>168</v>
       </c>
@@ -13452,11 +13488,11 @@
       </c>
       <c r="G220" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H220" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I220" s="4" t="s">
         <v>209</v>
@@ -13477,7 +13513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B221" s="4" t="s">
         <v>168</v>
       </c>
@@ -13495,11 +13531,11 @@
       </c>
       <c r="G221" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H221" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I221" s="4" t="s">
         <v>209</v>
@@ -13520,7 +13556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
         <v>168</v>
       </c>
@@ -13538,11 +13574,11 @@
       </c>
       <c r="G222" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H222" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>209</v>
@@ -13563,7 +13599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
         <v>168</v>
       </c>
@@ -13581,11 +13617,11 @@
       </c>
       <c r="G223" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H223" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>209</v>
@@ -13606,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
         <v>168</v>
       </c>
@@ -13624,11 +13660,11 @@
       </c>
       <c r="G224" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H224" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>209</v>
@@ -13649,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B225" s="4" t="s">
         <v>168</v>
       </c>
@@ -13667,11 +13703,11 @@
       </c>
       <c r="G225" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H225" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>209</v>
@@ -13692,7 +13728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
         <v>168</v>
       </c>
@@ -13710,11 +13746,11 @@
       </c>
       <c r="G226" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H226" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>209</v>
@@ -13735,7 +13771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
         <v>168</v>
       </c>
@@ -13753,11 +13789,11 @@
       </c>
       <c r="G227" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H227" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>209</v>
@@ -13778,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
         <v>168</v>
       </c>
@@ -13796,11 +13832,11 @@
       </c>
       <c r="G228" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H228" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>209</v>
@@ -13821,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B229" s="4" t="s">
         <v>168</v>
       </c>
@@ -13839,11 +13875,11 @@
       </c>
       <c r="G229" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H229" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I229" s="4" t="s">
         <v>209</v>
@@ -13864,7 +13900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
         <v>168</v>
       </c>
@@ -13882,11 +13918,11 @@
       </c>
       <c r="G230" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H230" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32.736397916669375</v>
+        <v>32.94806458333187</v>
       </c>
       <c r="I230" s="4" t="s">
         <v>209</v>
@@ -13907,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B231" s="11" t="s">
         <v>184</v>
       </c>
@@ -13925,11 +13961,11 @@
       </c>
       <c r="G231" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H231" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>220</v>
@@ -13953,7 +13989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B232" s="11" t="s">
         <v>184</v>
       </c>
@@ -13971,11 +14007,11 @@
       </c>
       <c r="G232" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H232" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I232" s="4" t="s">
         <v>220</v>
@@ -13999,7 +14035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B233" s="11" t="s">
         <v>184</v>
       </c>
@@ -14017,11 +14053,11 @@
       </c>
       <c r="G233" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H233" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I233" s="4" t="s">
         <v>220</v>
@@ -14045,7 +14081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B234" s="11" t="s">
         <v>184</v>
       </c>
@@ -14063,11 +14099,11 @@
       </c>
       <c r="G234" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H234" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I234" s="4" t="s">
         <v>220</v>
@@ -14091,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B235" s="11" t="s">
         <v>184</v>
       </c>
@@ -14109,11 +14145,11 @@
       </c>
       <c r="G235" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H235" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>18.736397916669375</v>
+        <v>18.94806458333187</v>
       </c>
       <c r="I235" s="4" t="s">
         <v>220</v>
@@ -14137,7 +14173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B236" s="11" t="s">
         <v>184</v>
       </c>
@@ -14155,11 +14191,11 @@
       </c>
       <c r="G236" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H236" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I236" s="4" t="s">
         <v>220</v>
@@ -14183,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B237" s="11" t="s">
         <v>184</v>
       </c>
@@ -14201,11 +14237,11 @@
       </c>
       <c r="G237" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H237" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I237" s="4" t="s">
         <v>220</v>
@@ -14229,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B238" s="11" t="s">
         <v>184</v>
       </c>
@@ -14247,11 +14283,11 @@
       </c>
       <c r="G238" s="2">
         <f t="shared" ref="G238:G240" ca="1" si="10">IF(E238="DONE",NOW()-D238, NOW()-D238)</f>
-        <v>22.736397916669375</v>
+        <v>22.94806458333187</v>
       </c>
       <c r="H238" s="2">
         <f t="shared" ref="H238:H240" ca="1" si="11">IF(E238="DONE", "", NOW()-F238)</f>
-        <v>14.736397916669375</v>
+        <v>14.94806458333187</v>
       </c>
       <c r="I238" s="4" t="s">
         <v>220</v>
@@ -14275,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B239" s="11" t="s">
         <v>184</v>
       </c>
@@ -14293,11 +14329,11 @@
       </c>
       <c r="G239" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="H239" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7363979166693753</v>
+        <v>6.9480645833318704</v>
       </c>
       <c r="I239" s="4" t="s">
         <v>220</v>
@@ -14318,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B240" s="11" t="s">
         <v>184</v>
       </c>
@@ -14336,11 +14372,11 @@
       </c>
       <c r="G240" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="H240" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7363979166693753</v>
+        <v>6.9480645833318704</v>
       </c>
       <c r="I240" s="4" t="s">
         <v>220</v>
@@ -14361,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B241" s="11" t="s">
         <v>184</v>
       </c>
@@ -14379,11 +14415,11 @@
       </c>
       <c r="G241" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="H241" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I241" s="4" t="s">
         <v>220</v>
@@ -14404,7 +14440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B242" s="11" t="s">
         <v>184</v>
       </c>
@@ -14422,11 +14458,11 @@
       </c>
       <c r="G242" s="2">
         <f t="shared" ref="G242" ca="1" si="12">IF(E242="DONE",NOW()-D242, NOW()-D242)</f>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="H242" s="2">
         <f t="shared" ref="H242" ca="1" si="13">IF(E242="DONE", "", NOW()-F242)</f>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I242" s="4" t="s">
         <v>220</v>
@@ -14447,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B243" s="11" t="s">
         <v>176</v>
       </c>
@@ -14465,11 +14501,11 @@
       </c>
       <c r="G243" s="2">
         <f t="shared" ref="G243:G245" ca="1" si="14">IF(E243="DONE",NOW()-D243, NOW()-D243)</f>
-        <v>25.736397916669375</v>
+        <v>25.94806458333187</v>
       </c>
       <c r="H243" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I243" s="4" t="s">
         <v>209</v>
@@ -14490,7 +14526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B244" s="11" t="s">
         <v>176</v>
       </c>
@@ -14508,11 +14544,11 @@
       </c>
       <c r="G244" s="2">
         <f t="shared" ref="G244" ca="1" si="15">IF(E244="DONE",NOW()-D244, NOW()-D244)</f>
-        <v>25.736397916669375</v>
+        <v>25.94806458333187</v>
       </c>
       <c r="H244" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I244" s="4" t="s">
         <v>209</v>
@@ -14533,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B245" s="11" t="s">
         <v>176</v>
       </c>
@@ -14551,11 +14587,11 @@
       </c>
       <c r="G245" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>25.736397916669375</v>
+        <v>25.94806458333187</v>
       </c>
       <c r="H245" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I245" s="4" t="s">
         <v>209</v>
@@ -14576,7 +14612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B246" s="11" t="s">
         <v>176</v>
       </c>
@@ -14594,11 +14630,11 @@
       </c>
       <c r="G246" s="2">
         <f t="shared" ref="G246" ca="1" si="16">IF(E246="DONE",NOW()-D246, NOW()-D246)</f>
-        <v>25.736397916669375</v>
+        <v>25.94806458333187</v>
       </c>
       <c r="H246" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>11.736397916669375</v>
+        <v>11.94806458333187</v>
       </c>
       <c r="I246" s="4" t="s">
         <v>209</v>
@@ -14619,7 +14655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B247" s="4" t="s">
         <v>106</v>
       </c>
@@ -14637,11 +14673,11 @@
       </c>
       <c r="G247" s="2">
         <f t="shared" ref="G247:G249" ca="1" si="17">IF(E247="DONE",NOW()-D247, NOW()-D247)</f>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H247" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>25.736397916669375</v>
+        <v>25.94806458333187</v>
       </c>
       <c r="I247" s="4" t="s">
         <v>212</v>
@@ -14665,7 +14701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B248" s="4" t="s">
         <v>106</v>
       </c>
@@ -14683,11 +14719,11 @@
       </c>
       <c r="G248" s="2">
         <f t="shared" ref="G248" ca="1" si="18">IF(E248="DONE",NOW()-D248, NOW()-D248)</f>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H248" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>25.736397916669375</v>
+        <v>25.94806458333187</v>
       </c>
       <c r="I248" s="4" t="s">
         <v>212</v>
@@ -14711,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
         <v>107</v>
       </c>
@@ -14729,11 +14765,11 @@
       </c>
       <c r="G249" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H249" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I249" s="4" t="s">
         <v>220</v>
@@ -14751,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B250" s="4" t="s">
         <v>100</v>
       </c>
@@ -14769,11 +14805,11 @@
       </c>
       <c r="G250" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H250" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I250" s="4" t="s">
         <v>220</v>
@@ -14791,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B251" s="4" t="s">
         <v>105</v>
       </c>
@@ -14809,11 +14845,11 @@
       </c>
       <c r="G251" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H251" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I251" s="4" t="s">
         <v>212</v>
@@ -14837,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
         <v>105</v>
       </c>
@@ -14855,11 +14891,11 @@
       </c>
       <c r="G252" s="2">
         <f t="shared" ref="G252" ca="1" si="19">IF(E252="DONE",NOW()-D252, NOW()-D252)</f>
-        <v>46.736397916669375</v>
+        <v>46.94806458333187</v>
       </c>
       <c r="H252" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.736397916669375</v>
+        <v>13.94806458333187</v>
       </c>
       <c r="I252" s="4" t="s">
         <v>212</v>
@@ -14970,25 +15006,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>PROJECT</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>AREA</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>PIC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>DOC_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>PROJECT_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>STATUS</formula1>
     </dataValidation>
   </dataValidations>
@@ -14998,24 +15034,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>366</v>
       </c>
@@ -15044,79 +15080,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -15127,20 +15163,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -15148,7 +15184,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -15156,7 +15192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -15164,7 +15200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -15172,7 +15208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -15180,7 +15216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -15188,7 +15224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -15196,7 +15232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -15204,7 +15240,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -15219,28 +15255,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>361</v>
       </c>
@@ -15260,7 +15296,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -15292,7 +15328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15324,7 +15360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -15356,7 +15392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -15376,7 +15412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -15396,7 +15432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -15410,7 +15446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -15424,7 +15460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -15438,7 +15474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -15452,7 +15488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -15466,7 +15502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -15480,7 +15516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>220</v>
       </c>
@@ -15491,7 +15527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>213</v>
       </c>
@@ -15502,7 +15538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>209</v>
       </c>
@@ -15513,7 +15549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>201</v>
       </c>
@@ -15521,7 +15557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>200</v>
       </c>
@@ -15529,7 +15565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>198</v>
       </c>
@@ -15537,7 +15573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>208</v>
       </c>
@@ -15545,7 +15581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>207</v>
       </c>
@@ -15553,7 +15589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>206</v>
       </c>
@@ -15561,7 +15597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>215</v>
       </c>
@@ -15569,27 +15605,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>212</v>
       </c>
